--- a/MuayThaiAthletesGuide/MuayThaiAthletesGuide_BugDatabase.xlsx
+++ b/MuayThaiAthletesGuide/MuayThaiAthletesGuide_BugDatabase.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel\Project_MTAG_RachelSoderberg\MuayThaiAthletesGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9276411A-CBAF-4106-B2BA-E0E18DB6282F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{7AD046E2-E615-4958-9370-F5D8C6562509}"/>
   </bookViews>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="14">
   <si>
     <t>Steps to Reproduce</t>
   </si>
@@ -57,13 +58,22 @@
   </si>
   <si>
     <t>Muay Thai Athletes Guide (MTAG) - Bug Database</t>
+  </si>
+  <si>
+    <t>User spinner to choose between time cap selections.</t>
+  </si>
+  <si>
+    <t>Time cap reflects the correct number of seconds</t>
+  </si>
+  <si>
+    <t>Time cap is not reflecting correct time, instead the preceding or following time cap is given</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,8 +81,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,6 +105,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -119,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -133,17 +156,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,7 +488,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,36 +503,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -518,105 +544,115 @@
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="2"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="8"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="8"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="8"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="8"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="8"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="8"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="8"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="8"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="2"/>
     </row>
   </sheetData>

--- a/MuayThaiAthletesGuide/MuayThaiAthletesGuide_BugDatabase.xlsx
+++ b/MuayThaiAthletesGuide/MuayThaiAthletesGuide_BugDatabase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel\Project_MTAG_RachelSoderberg\MuayThaiAthletesGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9276411A-CBAF-4106-B2BA-E0E18DB6282F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD384AD-78A4-4200-98EF-1B2F0D6FCEE3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{7AD046E2-E615-4958-9370-F5D8C6562509}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Steps to Reproduce</t>
   </si>
@@ -60,13 +60,22 @@
     <t>Muay Thai Athletes Guide (MTAG) - Bug Database</t>
   </si>
   <si>
-    <t>User spinner to choose between time cap selections.</t>
-  </si>
-  <si>
     <t>Time cap reflects the correct number of seconds</t>
   </si>
   <si>
     <t>Time cap is not reflecting correct time, instead the preceding or following time cap is given</t>
+  </si>
+  <si>
+    <t>Attempt to run Countdown timer with any time cap</t>
+  </si>
+  <si>
+    <t>Timer should countdown from cap to 0:00</t>
+  </si>
+  <si>
+    <t>User spinner to choose between time cap selections</t>
+  </si>
+  <si>
+    <t>Timer does not countdown correctly, instead it simply ticks down one second and stops</t>
   </si>
 </sst>
 </file>
@@ -142,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -165,11 +174,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,7 +500,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,13 +515,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -547,33 +559,43 @@
       <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="2"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>

--- a/MuayThaiAthletesGuide/MuayThaiAthletesGuide_BugDatabase.xlsx
+++ b/MuayThaiAthletesGuide/MuayThaiAthletesGuide_BugDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel\Project_MTAG_RachelSoderberg\MuayThaiAthletesGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD384AD-78A4-4200-98EF-1B2F0D6FCEE3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1105C9F0-C807-46E3-B332-005AEE3FAAAB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{7AD046E2-E615-4958-9370-F5D8C6562509}"/>
   </bookViews>
@@ -98,18 +98,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -124,7 +118,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -147,11 +141,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -159,13 +190,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -174,13 +202,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -500,7 +534,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,37 +548,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -556,13 +590,13 @@
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -574,13 +608,13 @@
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -592,89 +626,89 @@
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="7"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="7"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="7"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="7"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="2"/>
     </row>
   </sheetData>
